--- a/data/info/match_info_jogo8.xlsx
+++ b/data/info/match_info_jogo8.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coletas_3x3\rastreamento_3x3_Dvideow\jogo8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documents\data\bruno\projetos\3x3\tracking3x3\data\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15776D-4FEE-492A-87FC-6B9D220DD7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>jogo_num</t>
   </si>
@@ -124,12 +123,39 @@
   </si>
   <si>
     <t xml:space="preserve">30322 - tempo </t>
+  </si>
+  <si>
+    <t>atleta_id</t>
+  </si>
+  <si>
+    <t>atleta_info</t>
+  </si>
+  <si>
+    <t>t1_baixinho</t>
+  </si>
+  <si>
+    <t>t1_joelheira</t>
+  </si>
+  <si>
+    <t>t1_gordinho</t>
+  </si>
+  <si>
+    <t>t2_tenis_branco_magro</t>
+  </si>
+  <si>
+    <t>t2_tenis_rosa</t>
+  </si>
+  <si>
+    <t>t2_tenis_preto_cabeludo</t>
+  </si>
+  <si>
+    <t>t2_tenis_branco_tranca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,11 +475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,8 +489,9 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -494,9 +521,15 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
       <c r="K1" t="s">
@@ -540,10 +573,16 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2">
@@ -566,10 +605,16 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
       <c r="K3">
@@ -595,10 +640,16 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
       <c r="K4">
@@ -624,7 +675,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
       <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5">
@@ -651,6 +708,12 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
       <c r="K6">
         <v>9635</v>
       </c>
@@ -678,7 +741,13 @@
         <v>18</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="K7">
         <v>10973</v>
       </c>
@@ -705,6 +774,12 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
       <c r="K8">
         <v>13569</v>
       </c>
@@ -879,8 +954,8 @@
         <v>26498</v>
       </c>
     </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+    <row r="17" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
         <v>32</v>
       </c>
       <c r="K17">
@@ -896,7 +971,7 @@
         <v>27401</v>
       </c>
     </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K18">
         <v>27401</v>
       </c>
@@ -910,7 +985,7 @@
         <v>28032</v>
       </c>
     </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K19">
         <v>28032</v>
       </c>
@@ -924,7 +999,7 @@
         <v>29399</v>
       </c>
     </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K20">
         <v>29399</v>
       </c>
@@ -938,7 +1013,7 @@
         <v>36849</v>
       </c>
     </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K21">
         <v>37535</v>
       </c>
@@ -952,7 +1027,7 @@
         <v>38431</v>
       </c>
     </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K22">
         <v>38431</v>
       </c>
@@ -966,7 +1041,7 @@
         <v>40766</v>
       </c>
     </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K23">
         <v>40766</v>
       </c>
@@ -980,7 +1055,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K24">
         <v>41701</v>
       </c>
@@ -994,7 +1069,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K25">
         <v>44188</v>
       </c>
@@ -1008,7 +1083,7 @@
         <v>45523</v>
       </c>
     </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K26">
         <v>45523</v>
       </c>
@@ -1022,7 +1097,7 @@
         <v>46362</v>
       </c>
     </row>
-    <row r="27" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K27">
         <v>46362</v>
       </c>
@@ -1036,7 +1111,7 @@
         <v>47376</v>
       </c>
     </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K28">
         <v>47376</v>
       </c>
@@ -1050,7 +1125,7 @@
         <v>48355</v>
       </c>
     </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K29">
         <v>48355</v>
       </c>
@@ -1064,7 +1139,7 @@
         <v>49503</v>
       </c>
     </row>
-    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K30">
         <v>49503</v>
       </c>
@@ -1078,7 +1153,7 @@
         <v>50675</v>
       </c>
     </row>
-    <row r="31" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K31">
         <v>50675</v>
       </c>
@@ -1092,7 +1167,7 @@
         <v>53907</v>
       </c>
     </row>
-    <row r="32" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:14" x14ac:dyDescent="0.25">
       <c r="K32">
         <v>54554</v>
       </c>
